--- a/docs/build_instructions_small_speakers_cherry.xlsx
+++ b/docs/build_instructions_small_speakers_cherry.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="453" documentId="415E32CF7F9D79DA378485C62B6EEDB6DC1C7F04" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{32A7D207-FC87-42E2-B23A-BAB655CC1E06}"/>
+  <xr:revisionPtr revIDLastSave="499" documentId="415E32CF7F9D79DA378485C62B6EEDB6DC1C7F04" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3F73F306-C04F-41D7-92BD-837FA20609CB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
   <si>
     <t>Amazon</t>
   </si>
@@ -140,6 +140,52 @@
   </si>
   <si>
     <t>Speaker cloth (large cloth)</t>
+  </si>
+  <si>
+    <t>Notes &amp; alternatives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See instructions above. </t>
+  </si>
+  <si>
+    <t>Or Pi Shop SKU 1260</t>
+  </si>
+  <si>
+    <t>Or search for "MakerSpot 4-Port Stackable USB Hub HAT"</t>
+  </si>
+  <si>
+    <t>Or Amazon B00F7120TQ</t>
+  </si>
+  <si>
+    <t>If you have a crafting friend, they probably have some</t>
+  </si>
+  <si>
+    <t>Prices will vary. Does not include tax, shipping.</t>
+  </si>
+  <si>
+    <t>Or upgrade to Amazon B06XWN9Q99 or any 16GB+ card</t>
+  </si>
+  <si>
+    <t>Or Amazon B077Y149DL or any physically small USB drive</t>
+  </si>
+  <si>
+    <t>Other speakers no larger than 56W x 56D x 66H mm per speaker &amp; 
+take 3.5mm audio jack input &amp; USB power</t>
+  </si>
+  <si>
+    <t>Optional, but the status LED is really bright. Or use dark tape.</t>
+  </si>
+  <si>
+    <t>Or Amazon B06XQTHDRR</t>
+  </si>
+  <si>
+    <t>Or Amazon B07KJYR8K1 or search Amazon for KY-016</t>
+  </si>
+  <si>
+    <t>Sticky back rubber feet (100 pieces)</t>
+  </si>
+  <si>
+    <t>Only needed for wood &lt; 6mm thick</t>
   </si>
 </sst>
 </file>
@@ -259,7 +305,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -299,6 +345,10 @@
     <xf numFmtId="8" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -614,21 +664,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E12D50-D309-4C94-883F-34F0FBB95462}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="37.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="47" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -638,8 +689,11 @@
       <c r="C1" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -649,8 +703,11 @@
       <c r="C2" s="6">
         <v>69.28</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>14</v>
       </c>
@@ -660,8 +717,11 @@
       <c r="C3" s="6">
         <v>14.95</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
@@ -671,8 +731,9 @@
       <c r="C4" s="6">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
@@ -682,8 +743,11 @@
       <c r="C5" s="6">
         <v>13.99</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
@@ -693,8 +757,11 @@
       <c r="C6" s="6">
         <v>22.99</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
@@ -704,8 +771,9 @@
       <c r="C7" s="6">
         <v>11.99</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
@@ -715,8 +783,9 @@
       <c r="C8" s="6">
         <v>5.59</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>20</v>
       </c>
@@ -726,8 +795,11 @@
       <c r="C9" s="6">
         <v>4.75</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>3</v>
       </c>
@@ -737,8 +809,11 @@
       <c r="C10" s="6">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>21</v>
       </c>
@@ -748,8 +823,11 @@
       <c r="C11" s="6">
         <v>19.989999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>22</v>
       </c>
@@ -759,8 +837,9 @@
       <c r="C12" s="6">
         <v>9.99</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>23</v>
       </c>
@@ -770,8 +849,11 @@
       <c r="C13" s="6">
         <v>5.99</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>24</v>
       </c>
@@ -781,8 +863,11 @@
       <c r="C14" s="6">
         <v>3.17</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>25</v>
       </c>
@@ -792,8 +877,11 @@
       <c r="C15" s="6">
         <v>7.99</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>26</v>
       </c>
@@ -803,8 +891,9 @@
       <c r="C16" s="6">
         <v>5.79</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>2</v>
       </c>
@@ -814,8 +903,11 @@
       <c r="C17" s="6">
         <v>6.99</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>29</v>
       </c>
@@ -824,8 +916,11 @@
         <f>SUM(C2:C17)</f>
         <v>215.25000000000003</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
     </row>
@@ -854,10 +949,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD35BB53-6D32-4D96-AF53-91579E0632D6}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -872,10 +967,10 @@
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
@@ -888,7 +983,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -897,7 +992,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
@@ -920,7 +1015,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
@@ -935,18 +1030,18 @@
         <v>25</v>
       </c>
       <c r="E5" s="6">
-        <f t="shared" ref="E5:E21" si="0">C5*D5</f>
+        <f t="shared" ref="E5:E22" si="0">C5*D5</f>
         <v>250</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" ref="F5:F21" si="1">E5/$B$2</f>
+        <f t="shared" ref="F5:F22" si="1">E5/$B$2</f>
         <v>25</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
@@ -969,7 +1064,7 @@
       </c>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
@@ -992,7 +1087,7 @@
       </c>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
@@ -1015,7 +1110,7 @@
       </c>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
@@ -1038,7 +1133,7 @@
       </c>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>32</v>
       </c>
@@ -1061,7 +1156,7 @@
       </c>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>31</v>
       </c>
@@ -1084,7 +1179,7 @@
       </c>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>19</v>
       </c>
@@ -1107,7 +1202,7 @@
       </c>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>20</v>
       </c>
@@ -1130,7 +1225,7 @@
       </c>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>3</v>
       </c>
@@ -1153,7 +1248,7 @@
       </c>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>21</v>
       </c>
@@ -1176,7 +1271,7 @@
       </c>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>36</v>
       </c>
@@ -1199,7 +1294,7 @@
       </c>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>23</v>
       </c>
@@ -1222,7 +1317,7 @@
       </c>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>24</v>
       </c>
@@ -1245,7 +1340,7 @@
       </c>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>34</v>
       </c>
@@ -1268,7 +1363,7 @@
       </c>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>26</v>
       </c>
@@ -1291,7 +1386,7 @@
       </c>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>35</v>
       </c>
@@ -1314,17 +1409,42 @@
       </c>
       <c r="G21" s="10"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="16">
-        <f>SUM(F5:F21)</f>
-        <v>119.04899999999999</v>
-      </c>
-      <c r="G22" s="18" t="s">
+    <row r="22" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" si="1"/>
+        <v>0.10900000000000001</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="16">
+        <f>SUM(F5:F22)</f>
+        <v>119.15799999999999</v>
+      </c>
+      <c r="G23" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1346,8 +1466,9 @@
     <hyperlink ref="A10" r:id="rId14" xr:uid="{A30D3F27-789F-47E8-BF73-085292AEA9C8}"/>
     <hyperlink ref="A21" r:id="rId15" display="KY-016 indicator LED" xr:uid="{DEFC484D-5D94-4037-8035-4C92DA564D88}"/>
     <hyperlink ref="A19" r:id="rId16" display="KY-040 rotary encoders (knobs)" xr:uid="{C3D48187-FF1B-4163-B871-609553961000}"/>
+    <hyperlink ref="A22" r:id="rId17" display="Sticky back rubber feet" xr:uid="{A6E2A975-8CB6-4A23-973C-5F2B4C8EC89A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId17"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId18"/>
 </worksheet>
 </file>